--- a/RawData/2008_Olympics.xlsx
+++ b/RawData/2008_Olympics.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10808"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\smith\butlerdata\Machine-Learning-Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Hema/Desktop/butlerdata/Machine-Learning-Project/RawData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D101F6B-7AC7-46B4-9F6C-B31AC7855BF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9ECFDA1-7F7D-9549-99D0-BAF922929949}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="23240" windowHeight="12560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2008_Olympics" sheetId="1" r:id="rId1"/>
@@ -39,9 +39,6 @@
     <t>Country</t>
   </si>
   <si>
-    <t xml:space="preserve">Gold </t>
-  </si>
-  <si>
     <t>Silver</t>
   </si>
   <si>
@@ -51,9 +48,6 @@
     <t>Total</t>
   </si>
   <si>
-    <t>Athlete Total</t>
-  </si>
-  <si>
     <t>GDP</t>
   </si>
   <si>
@@ -322,6 +316,12 @@
   </si>
   <si>
     <t>YearCountry</t>
+  </si>
+  <si>
+    <t>Gold</t>
+  </si>
+  <si>
+    <t>Athletes</t>
   </si>
 </sst>
 </file>
@@ -1164,54 +1164,54 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A88"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="9.05078125" customWidth="1"/>
+    <col min="3" max="3" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>95</v>
+      </c>
+      <c r="E1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" t="s">
         <v>96</v>
       </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" t="s">
-        <v>7</v>
-      </c>
       <c r="J1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="str">
         <f>C2&amp;B2</f>
         <v>2008 Afghanistan </v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C2">
         <v>2008</v>
@@ -1238,13 +1238,13 @@
         <v>24485600</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="str">
         <f t="shared" ref="A3:A66" si="0">C3&amp;B3</f>
         <v>2008 Algeria </v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C3">
         <v>2008</v>
@@ -1271,13 +1271,13 @@
         <v>37100000</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="str">
         <f t="shared" si="0"/>
         <v>2008 Argentina </v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C4">
         <v>2008</v>
@@ -1304,13 +1304,13 @@
         <v>40117096</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" t="str">
         <f t="shared" si="0"/>
         <v>2008 Armenia </v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C5">
         <v>2008</v>
@@ -1337,13 +1337,13 @@
         <v>3268500</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" t="str">
         <f t="shared" si="0"/>
         <v>2008 Australia </v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C6">
         <v>2008</v>
@@ -1370,13 +1370,13 @@
         <v>22880619</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" t="str">
         <f t="shared" si="0"/>
         <v>2008 Austria </v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C7">
         <v>2008</v>
@@ -1403,13 +1403,13 @@
         <v>8452835</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" t="str">
         <f t="shared" si="0"/>
         <v>2008 Azerbaijan </v>
       </c>
       <c r="B8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C8">
         <v>2008</v>
@@ -1436,13 +1436,13 @@
         <v>9111100</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" t="str">
         <f t="shared" si="0"/>
         <v>2008 Bahamas </v>
       </c>
       <c r="B9" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C9">
         <v>2008</v>
@@ -1469,13 +1469,13 @@
         <v>353658</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" t="str">
         <f t="shared" si="0"/>
         <v>2008 Belarus </v>
       </c>
       <c r="B10" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C10">
         <v>2008</v>
@@ -1502,13 +1502,13 @@
         <v>9461400</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" t="str">
         <f t="shared" si="0"/>
         <v>2008 Belgium </v>
       </c>
       <c r="B11" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C11">
         <v>2008</v>
@@ -1535,13 +1535,13 @@
         <v>10951266</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" t="str">
         <f t="shared" si="0"/>
         <v>2008 Brazil </v>
       </c>
       <c r="B12" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C12">
         <v>2008</v>
@@ -1568,13 +1568,13 @@
         <v>192376496</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" t="str">
         <f t="shared" si="0"/>
         <v>2008 Bulgaria </v>
       </c>
       <c r="B13" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C13">
         <v>2008</v>
@@ -1601,13 +1601,13 @@
         <v>7364570</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" t="str">
         <f t="shared" si="0"/>
         <v>2008 Cameroon </v>
       </c>
       <c r="B14" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C14">
         <v>2008</v>
@@ -1634,13 +1634,13 @@
         <v>19406100</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" t="str">
         <f t="shared" si="0"/>
         <v>2008 Canada </v>
       </c>
       <c r="B15" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C15">
         <v>2008</v>
@@ -1667,13 +1667,13 @@
         <v>34771400</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" t="str">
         <f t="shared" si="0"/>
         <v>2008 Chile </v>
       </c>
       <c r="B16" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C16">
         <v>2008</v>
@@ -1700,13 +1700,13 @@
         <v>17402630</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" t="str">
         <f t="shared" si="0"/>
         <v>2008 China </v>
       </c>
       <c r="B17" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C17">
         <v>2008</v>
@@ -1733,13 +1733,13 @@
         <v>1347350000</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" t="str">
         <f t="shared" si="0"/>
         <v>2008 Chinese Taipei </v>
       </c>
       <c r="B18" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C18">
         <v>2008</v>
@@ -1766,13 +1766,13 @@
         <v>23234003</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" t="str">
         <f t="shared" si="0"/>
         <v>2008 Colombia </v>
       </c>
       <c r="B19" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C19">
         <v>2008</v>
@@ -1799,13 +1799,13 @@
         <v>46475000</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" t="str">
         <f t="shared" si="0"/>
         <v>2008 Croatia </v>
       </c>
       <c r="B20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C20">
         <v>2008</v>
@@ -1832,13 +1832,13 @@
         <v>4290612</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" t="str">
         <f t="shared" si="0"/>
         <v>2008 Cuba </v>
       </c>
       <c r="B21" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C21">
         <v>2008</v>
@@ -1865,13 +1865,13 @@
         <v>11241161</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" t="str">
         <f t="shared" si="0"/>
         <v>2008 Czech Republic </v>
       </c>
       <c r="B22" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C22">
         <v>2008</v>
@@ -1898,13 +1898,13 @@
         <v>10504203</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" t="str">
         <f t="shared" si="0"/>
         <v>2008 Denmark </v>
       </c>
       <c r="B23" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C23">
         <v>2008</v>
@@ -1931,13 +1931,13 @@
         <v>5580516</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" t="str">
         <f t="shared" si="0"/>
         <v>2008 Dominican Republic </v>
       </c>
       <c r="B24" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C24">
         <v>2008</v>
@@ -1964,13 +1964,13 @@
         <v>9378818</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" t="str">
         <f t="shared" si="0"/>
         <v>2008 Ecuador </v>
       </c>
       <c r="B25" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C25">
         <v>2008</v>
@@ -1997,13 +1997,13 @@
         <v>14483499</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" t="str">
         <f t="shared" si="0"/>
         <v>2008 Egypt </v>
       </c>
       <c r="B26" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C26">
         <v>2008</v>
@@ -2030,13 +2030,13 @@
         <v>81927000</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" t="str">
         <f t="shared" si="0"/>
         <v>2008 Estonia </v>
       </c>
       <c r="B27" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C27">
         <v>2008</v>
@@ -2063,13 +2063,13 @@
         <v>1318005</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" t="str">
         <f t="shared" si="0"/>
         <v>2008 Ethiopia </v>
       </c>
       <c r="B28" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C28">
         <v>2008</v>
@@ -2096,13 +2096,13 @@
         <v>84320987</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" t="str">
         <f t="shared" si="0"/>
         <v>2008 Finland </v>
       </c>
       <c r="B29" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C29">
         <v>2008</v>
@@ -2129,13 +2129,13 @@
         <v>5407040</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" t="str">
         <f t="shared" si="0"/>
         <v>2008 France </v>
       </c>
       <c r="B30" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C30">
         <v>2008</v>
@@ -2162,13 +2162,13 @@
         <v>65350000</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31" t="str">
         <f t="shared" si="0"/>
         <v>2008 Georgia </v>
       </c>
       <c r="B31" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C31">
         <v>2008</v>
@@ -2195,13 +2195,13 @@
         <v>4469200</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32" t="str">
         <f t="shared" si="0"/>
         <v>2008 Germany </v>
       </c>
       <c r="B32" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C32">
         <v>2008</v>
@@ -2228,13 +2228,13 @@
         <v>81831000</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33" t="str">
         <f t="shared" si="0"/>
         <v>2008 Great Britain </v>
       </c>
       <c r="B33" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C33">
         <v>2008</v>
@@ -2261,13 +2261,13 @@
         <v>62262000</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34" t="str">
         <f t="shared" si="0"/>
         <v>2008 Greece </v>
       </c>
       <c r="B34" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C34">
         <v>2008</v>
@@ -2294,13 +2294,13 @@
         <v>10787690</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A35" t="str">
         <f t="shared" si="0"/>
         <v>2008 Hungary </v>
       </c>
       <c r="B35" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C35">
         <v>2008</v>
@@ -2327,13 +2327,13 @@
         <v>9962000</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A36" t="str">
         <f t="shared" si="0"/>
         <v>2008 Iceland </v>
       </c>
       <c r="B36" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C36">
         <v>2008</v>
@@ -2360,13 +2360,13 @@
         <v>319575</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A37" t="str">
         <f t="shared" si="0"/>
         <v>2008 India </v>
       </c>
       <c r="B37" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C37">
         <v>2008</v>
@@ -2393,13 +2393,13 @@
         <v>1210193422</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A38" t="str">
         <f t="shared" si="0"/>
         <v>2008 Indonesia </v>
       </c>
       <c r="B38" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C38">
         <v>2008</v>
@@ -2426,13 +2426,13 @@
         <v>237641326</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A39" t="str">
         <f t="shared" si="0"/>
         <v>2008 Iran </v>
       </c>
       <c r="B39" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C39">
         <v>2008</v>
@@ -2459,13 +2459,13 @@
         <v>76309000</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A40" t="str">
         <f t="shared" si="0"/>
         <v>2008 Ireland </v>
       </c>
       <c r="B40" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C40">
         <v>2008</v>
@@ -2492,13 +2492,13 @@
         <v>4588252</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A41" t="str">
         <f t="shared" si="0"/>
         <v>2008 Israel </v>
       </c>
       <c r="B41" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C41">
         <v>2008</v>
@@ -2525,13 +2525,13 @@
         <v>7859300</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A42" t="str">
         <f t="shared" si="0"/>
         <v>2008 Italy </v>
       </c>
       <c r="B42" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C42">
         <v>2008</v>
@@ -2558,13 +2558,13 @@
         <v>60776531</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A43" t="str">
         <f t="shared" si="0"/>
         <v>2008 Jamaica </v>
       </c>
       <c r="B43" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C43">
         <v>2008</v>
@@ -2591,13 +2591,13 @@
         <v>2705827</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A44" t="str">
         <f t="shared" si="0"/>
         <v>2008 Japan </v>
       </c>
       <c r="B44" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C44">
         <v>2008</v>
@@ -2624,13 +2624,13 @@
         <v>127650000</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A45" t="str">
         <f t="shared" si="0"/>
         <v>2008 Kazakhstan </v>
       </c>
       <c r="B45" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C45">
         <v>2008</v>
@@ -2657,13 +2657,13 @@
         <v>16718000</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A46" t="str">
         <f t="shared" si="0"/>
         <v>2008 Kenya </v>
       </c>
       <c r="B46" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C46">
         <v>2008</v>
@@ -2690,13 +2690,13 @@
         <v>38610097</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A47" t="str">
         <f t="shared" si="0"/>
         <v>2008 Kyrgyzstan </v>
       </c>
       <c r="B47" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C47">
         <v>2008</v>
@@ -2723,13 +2723,13 @@
         <v>5477600</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A48" t="str">
         <f t="shared" si="0"/>
         <v>2008 Latvia </v>
       </c>
       <c r="B48" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C48">
         <v>2008</v>
@@ -2756,13 +2756,13 @@
         <v>2070371</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A49" t="str">
         <f t="shared" si="0"/>
         <v>2008 Lithuania </v>
       </c>
       <c r="B49" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C49">
         <v>2008</v>
@@ -2789,13 +2789,13 @@
         <v>3192800</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A50" t="str">
         <f t="shared" si="0"/>
         <v>2008 Malaysia </v>
       </c>
       <c r="B50" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C50">
         <v>2008</v>
@@ -2822,13 +2822,13 @@
         <v>28334135</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A51" t="str">
         <f t="shared" si="0"/>
         <v>2008 Mauritius </v>
       </c>
       <c r="B51" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C51">
         <v>2008</v>
@@ -2855,13 +2855,13 @@
         <v>1286051</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A52" t="str">
         <f t="shared" si="0"/>
         <v>2008 Mexico </v>
       </c>
       <c r="B52" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C52">
         <v>2008</v>
@@ -2888,13 +2888,13 @@
         <v>112336538</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A53" t="str">
         <f t="shared" si="0"/>
         <v>2008 Moldova </v>
       </c>
       <c r="B53" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C53">
         <v>2008</v>
@@ -2921,13 +2921,13 @@
         <v>3559500</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A54" t="str">
         <f t="shared" si="0"/>
         <v>2008 Mongolia </v>
       </c>
       <c r="B54" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C54">
         <v>2008</v>
@@ -2954,13 +2954,13 @@
         <v>2736800</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A55" t="str">
         <f t="shared" si="0"/>
         <v>2008 Morocco </v>
       </c>
       <c r="B55" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C55">
         <v>2008</v>
@@ -2987,13 +2987,13 @@
         <v>32526800</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A56" t="str">
         <f t="shared" si="0"/>
         <v>2008 Netherlands </v>
       </c>
       <c r="B56" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C56">
         <v>2008</v>
@@ -3020,13 +3020,13 @@
         <v>16731770</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A57" t="str">
         <f t="shared" si="0"/>
         <v>2008 New Zealand </v>
       </c>
       <c r="B57" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C57">
         <v>2008</v>
@@ -3053,13 +3053,13 @@
         <v>4432620</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A58" t="str">
         <f t="shared" si="0"/>
         <v>2008 Nigeria </v>
       </c>
       <c r="B58" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C58">
         <v>2008</v>
@@ -3086,13 +3086,13 @@
         <v>162471000</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A59" t="str">
         <f t="shared" si="0"/>
         <v>2008 North Korea </v>
       </c>
       <c r="B59" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C59">
         <v>2008</v>
@@ -3119,13 +3119,13 @@
         <v>24052231</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A60" t="str">
         <f t="shared" si="0"/>
         <v>2008 Norway </v>
       </c>
       <c r="B60" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C60">
         <v>2008</v>
@@ -3152,13 +3152,13 @@
         <v>5005700</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A61" t="str">
         <f t="shared" si="0"/>
         <v>2008 Panama </v>
       </c>
       <c r="B61" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C61">
         <v>2008</v>
@@ -3185,13 +3185,13 @@
         <v>3405813</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A62" t="str">
         <f t="shared" si="0"/>
         <v>2008 Poland </v>
       </c>
       <c r="B62" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C62">
         <v>2008</v>
@@ -3218,13 +3218,13 @@
         <v>38501000</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A63" t="str">
         <f t="shared" si="0"/>
         <v>2008 Portugal </v>
       </c>
       <c r="B63" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C63">
         <v>2008</v>
@@ -3251,13 +3251,13 @@
         <v>10561614</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A64" t="str">
         <f t="shared" si="0"/>
         <v>2008 Romania </v>
       </c>
       <c r="B64" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C64">
         <v>2008</v>
@@ -3284,13 +3284,13 @@
         <v>19042936</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A65" t="str">
         <f t="shared" si="0"/>
         <v>2008 Russia </v>
       </c>
       <c r="B65" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C65">
         <v>2008</v>
@@ -3317,13 +3317,13 @@
         <v>143056383</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A66" t="str">
         <f t="shared" si="0"/>
         <v>2008 Samoa </v>
       </c>
       <c r="B66" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C66">
         <v>2008</v>
@@ -3350,13 +3350,13 @@
         <v>186340</v>
       </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A67" t="str">
         <f t="shared" ref="A67:A88" si="1">C67&amp;B67</f>
         <v>2008 Serbia </v>
       </c>
       <c r="B67" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C67">
         <v>2008</v>
@@ -3383,13 +3383,13 @@
         <v>7120666</v>
       </c>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A68" t="str">
         <f t="shared" si="1"/>
         <v>2008 Singapore </v>
       </c>
       <c r="B68" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C68">
         <v>2008</v>
@@ -3416,13 +3416,13 @@
         <v>5183700</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A69" t="str">
         <f t="shared" si="1"/>
         <v>2008 Slovakia </v>
       </c>
       <c r="B69" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C69">
         <v>2008</v>
@@ -3449,13 +3449,13 @@
         <v>5445324</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A70" t="str">
         <f t="shared" si="1"/>
         <v>2008 Slovenia </v>
       </c>
       <c r="B70" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C70">
         <v>2008</v>
@@ -3482,13 +3482,13 @@
         <v>2057540</v>
       </c>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A71" t="str">
         <f t="shared" si="1"/>
         <v>2008 South Africa </v>
       </c>
       <c r="B71" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C71">
         <v>2008</v>
@@ -3515,13 +3515,13 @@
         <v>50586757</v>
       </c>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A72" t="str">
         <f t="shared" si="1"/>
         <v>2008 South Korea </v>
       </c>
       <c r="B72" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C72">
         <v>2008</v>
@@ -3548,13 +3548,13 @@
         <v>48580000</v>
       </c>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A73" t="str">
         <f t="shared" si="1"/>
         <v>2008 Spain </v>
       </c>
       <c r="B73" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C73">
         <v>2008</v>
@@ -3581,13 +3581,13 @@
         <v>46196278</v>
       </c>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A74" t="str">
         <f t="shared" si="1"/>
         <v>2008 Sudan </v>
       </c>
       <c r="B74" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C74">
         <v>2008</v>
@@ -3614,13 +3614,13 @@
         <v>30894000</v>
       </c>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A75" t="str">
         <f t="shared" si="1"/>
         <v>2008 Sweden </v>
       </c>
       <c r="B75" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C75">
         <v>2008</v>
@@ -3647,13 +3647,13 @@
         <v>9490683</v>
       </c>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A76" t="str">
         <f t="shared" si="1"/>
         <v>2008 Switzerland </v>
       </c>
       <c r="B76" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C76">
         <v>2008</v>
@@ -3680,13 +3680,13 @@
         <v>7870100</v>
       </c>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A77" t="str">
         <f t="shared" si="1"/>
         <v>2008 Tajikistan </v>
       </c>
       <c r="B77" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C77">
         <v>2008</v>
@@ -3713,13 +3713,13 @@
         <v>7616000</v>
       </c>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A78" t="str">
         <f t="shared" si="1"/>
         <v>2008 Thailand </v>
       </c>
       <c r="B78" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C78">
         <v>2008</v>
@@ -3746,13 +3746,13 @@
         <v>65479453</v>
       </c>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A79" t="str">
         <f t="shared" si="1"/>
         <v>2008 Togo </v>
       </c>
       <c r="B79" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C79">
         <v>2008</v>
@@ -3779,13 +3779,13 @@
         <v>6191155</v>
       </c>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A80" t="str">
         <f t="shared" si="1"/>
         <v>2008 Trinidad and Tobago </v>
       </c>
       <c r="B80" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C80">
         <v>2008</v>
@@ -3812,13 +3812,13 @@
         <v>1317714</v>
       </c>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A81" t="str">
         <f t="shared" si="1"/>
         <v>2008 Tunisia </v>
       </c>
       <c r="B81" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C81">
         <v>2008</v>
@@ -3845,13 +3845,13 @@
         <v>10673800</v>
       </c>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A82" t="str">
         <f t="shared" si="1"/>
         <v>2008 Turkey </v>
       </c>
       <c r="B82" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C82">
         <v>2008</v>
@@ -3878,13 +3878,13 @@
         <v>74724269</v>
       </c>
     </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A83" t="str">
         <f t="shared" si="1"/>
         <v>2008 Ukraine </v>
       </c>
       <c r="B83" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C83">
         <v>2008</v>
@@ -3911,13 +3911,13 @@
         <v>45644419</v>
       </c>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A84" t="str">
         <f t="shared" si="1"/>
         <v>2008 United States </v>
       </c>
       <c r="B84" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C84">
         <v>2008</v>
@@ -3944,13 +3944,13 @@
         <v>313382000</v>
       </c>
     </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A85" t="str">
         <f t="shared" si="1"/>
         <v>2008 Uzbekistan </v>
       </c>
       <c r="B85" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C85">
         <v>2008</v>
@@ -3977,13 +3977,13 @@
         <v>29123400</v>
       </c>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A86" t="str">
         <f t="shared" si="1"/>
         <v>2008 Venezuela </v>
       </c>
       <c r="B86" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C86">
         <v>2008</v>
@@ -4010,13 +4010,13 @@
         <v>27150095</v>
       </c>
     </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="87" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A87" t="str">
         <f t="shared" si="1"/>
         <v>2008 Vietnam </v>
       </c>
       <c r="B87" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C87">
         <v>2008</v>
@@ -4043,13 +4043,13 @@
         <v>87840000</v>
       </c>
     </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="88" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A88" t="str">
         <f t="shared" si="1"/>
         <v>2008 Zimbabwe </v>
       </c>
       <c r="B88" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C88">
         <v>2008</v>

--- a/RawData/2008_Olympics.xlsx
+++ b/RawData/2008_Olympics.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Hema/Desktop/butlerdata/Machine-Learning-Project/RawData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9ECFDA1-7F7D-9549-99D0-BAF922929949}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0321BBA-6AF3-0245-9313-4D7267A29FEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="23240" windowHeight="12560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4160" yWindow="780" windowWidth="23240" windowHeight="12560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2008_Olympics" sheetId="1" r:id="rId1"/>
@@ -51,267 +51,6 @@
     <t>GDP</t>
   </si>
   <si>
-    <t> Afghanistan </t>
-  </si>
-  <si>
-    <t> Algeria </t>
-  </si>
-  <si>
-    <t> Argentina </t>
-  </si>
-  <si>
-    <t> Armenia </t>
-  </si>
-  <si>
-    <t> Australia </t>
-  </si>
-  <si>
-    <t> Austria </t>
-  </si>
-  <si>
-    <t> Azerbaijan </t>
-  </si>
-  <si>
-    <t> Bahamas </t>
-  </si>
-  <si>
-    <t> Belarus </t>
-  </si>
-  <si>
-    <t> Belgium </t>
-  </si>
-  <si>
-    <t> Brazil </t>
-  </si>
-  <si>
-    <t> Bulgaria </t>
-  </si>
-  <si>
-    <t> Cameroon </t>
-  </si>
-  <si>
-    <t> Canada </t>
-  </si>
-  <si>
-    <t> Chile </t>
-  </si>
-  <si>
-    <t> China </t>
-  </si>
-  <si>
-    <t> Chinese Taipei </t>
-  </si>
-  <si>
-    <t> Colombia </t>
-  </si>
-  <si>
-    <t> Croatia </t>
-  </si>
-  <si>
-    <t> Cuba </t>
-  </si>
-  <si>
-    <t> Czech Republic </t>
-  </si>
-  <si>
-    <t> Denmark </t>
-  </si>
-  <si>
-    <t> Dominican Republic </t>
-  </si>
-  <si>
-    <t> Ecuador </t>
-  </si>
-  <si>
-    <t> Egypt </t>
-  </si>
-  <si>
-    <t> Estonia </t>
-  </si>
-  <si>
-    <t> Ethiopia </t>
-  </si>
-  <si>
-    <t> Finland </t>
-  </si>
-  <si>
-    <t> France </t>
-  </si>
-  <si>
-    <t> Georgia </t>
-  </si>
-  <si>
-    <t> Germany </t>
-  </si>
-  <si>
-    <t> Great Britain </t>
-  </si>
-  <si>
-    <t> Greece </t>
-  </si>
-  <si>
-    <t> Hungary </t>
-  </si>
-  <si>
-    <t> Iceland </t>
-  </si>
-  <si>
-    <t> India </t>
-  </si>
-  <si>
-    <t> Indonesia </t>
-  </si>
-  <si>
-    <t> Iran </t>
-  </si>
-  <si>
-    <t> Ireland </t>
-  </si>
-  <si>
-    <t> Israel </t>
-  </si>
-  <si>
-    <t> Italy </t>
-  </si>
-  <si>
-    <t> Jamaica </t>
-  </si>
-  <si>
-    <t> Japan </t>
-  </si>
-  <si>
-    <t> Kazakhstan </t>
-  </si>
-  <si>
-    <t> Kenya </t>
-  </si>
-  <si>
-    <t> Kyrgyzstan </t>
-  </si>
-  <si>
-    <t> Latvia </t>
-  </si>
-  <si>
-    <t> Lithuania </t>
-  </si>
-  <si>
-    <t> Malaysia </t>
-  </si>
-  <si>
-    <t> Mauritius </t>
-  </si>
-  <si>
-    <t> Mexico </t>
-  </si>
-  <si>
-    <t> Moldova </t>
-  </si>
-  <si>
-    <t> Mongolia </t>
-  </si>
-  <si>
-    <t> Morocco </t>
-  </si>
-  <si>
-    <t> Netherlands </t>
-  </si>
-  <si>
-    <t> New Zealand </t>
-  </si>
-  <si>
-    <t> Nigeria </t>
-  </si>
-  <si>
-    <t> North Korea </t>
-  </si>
-  <si>
-    <t> Norway </t>
-  </si>
-  <si>
-    <t> Panama </t>
-  </si>
-  <si>
-    <t> Poland </t>
-  </si>
-  <si>
-    <t> Portugal </t>
-  </si>
-  <si>
-    <t> Romania </t>
-  </si>
-  <si>
-    <t> Russia </t>
-  </si>
-  <si>
-    <t> Samoa </t>
-  </si>
-  <si>
-    <t> Serbia </t>
-  </si>
-  <si>
-    <t> Singapore </t>
-  </si>
-  <si>
-    <t> Slovakia </t>
-  </si>
-  <si>
-    <t> Slovenia </t>
-  </si>
-  <si>
-    <t> South Africa </t>
-  </si>
-  <si>
-    <t> South Korea </t>
-  </si>
-  <si>
-    <t> Spain </t>
-  </si>
-  <si>
-    <t> Sudan </t>
-  </si>
-  <si>
-    <t> Sweden </t>
-  </si>
-  <si>
-    <t> Switzerland </t>
-  </si>
-  <si>
-    <t> Tajikistan </t>
-  </si>
-  <si>
-    <t> Thailand </t>
-  </si>
-  <si>
-    <t> Togo </t>
-  </si>
-  <si>
-    <t> Trinidad and Tobago </t>
-  </si>
-  <si>
-    <t> Tunisia </t>
-  </si>
-  <si>
-    <t> Turkey </t>
-  </si>
-  <si>
-    <t> Ukraine </t>
-  </si>
-  <si>
-    <t> United States </t>
-  </si>
-  <si>
-    <t> Uzbekistan </t>
-  </si>
-  <si>
-    <t> Venezuela </t>
-  </si>
-  <si>
-    <t> Vietnam </t>
-  </si>
-  <si>
-    <t> Zimbabwe </t>
-  </si>
-  <si>
     <t>Population</t>
   </si>
   <si>
@@ -322,6 +61,267 @@
   </si>
   <si>
     <t>Athletes</t>
+  </si>
+  <si>
+    <t>Afghanistan</t>
+  </si>
+  <si>
+    <t>Algeria</t>
+  </si>
+  <si>
+    <t>Argentina</t>
+  </si>
+  <si>
+    <t>Armenia</t>
+  </si>
+  <si>
+    <t>Australia</t>
+  </si>
+  <si>
+    <t>Austria</t>
+  </si>
+  <si>
+    <t>Azerbaijan</t>
+  </si>
+  <si>
+    <t>Bahamas</t>
+  </si>
+  <si>
+    <t>Belarus</t>
+  </si>
+  <si>
+    <t>Belgium</t>
+  </si>
+  <si>
+    <t>Brazil</t>
+  </si>
+  <si>
+    <t>Bulgaria</t>
+  </si>
+  <si>
+    <t>Cameroon</t>
+  </si>
+  <si>
+    <t>Canada</t>
+  </si>
+  <si>
+    <t>Chile</t>
+  </si>
+  <si>
+    <t>China</t>
+  </si>
+  <si>
+    <t>ChineseTaipei</t>
+  </si>
+  <si>
+    <t>Colombia</t>
+  </si>
+  <si>
+    <t>Croatia</t>
+  </si>
+  <si>
+    <t>Cuba</t>
+  </si>
+  <si>
+    <t>CzechRepublic</t>
+  </si>
+  <si>
+    <t>Denmark</t>
+  </si>
+  <si>
+    <t>DominicanRepublic</t>
+  </si>
+  <si>
+    <t>Ecuador</t>
+  </si>
+  <si>
+    <t>Egypt</t>
+  </si>
+  <si>
+    <t>Estonia</t>
+  </si>
+  <si>
+    <t>Ethiopia</t>
+  </si>
+  <si>
+    <t>Finland</t>
+  </si>
+  <si>
+    <t>France</t>
+  </si>
+  <si>
+    <t>Georgia</t>
+  </si>
+  <si>
+    <t>Germany</t>
+  </si>
+  <si>
+    <t>GreatBritain</t>
+  </si>
+  <si>
+    <t>Greece</t>
+  </si>
+  <si>
+    <t>Hungary</t>
+  </si>
+  <si>
+    <t>Iceland</t>
+  </si>
+  <si>
+    <t>India</t>
+  </si>
+  <si>
+    <t>Indonesia</t>
+  </si>
+  <si>
+    <t>Iran</t>
+  </si>
+  <si>
+    <t>Ireland</t>
+  </si>
+  <si>
+    <t>Israel</t>
+  </si>
+  <si>
+    <t>Italy</t>
+  </si>
+  <si>
+    <t>Jamaica</t>
+  </si>
+  <si>
+    <t>Japan</t>
+  </si>
+  <si>
+    <t>Kazakhstan</t>
+  </si>
+  <si>
+    <t>Kenya</t>
+  </si>
+  <si>
+    <t>Kyrgyzstan</t>
+  </si>
+  <si>
+    <t>Latvia</t>
+  </si>
+  <si>
+    <t>Lithuania</t>
+  </si>
+  <si>
+    <t>Malaysia</t>
+  </si>
+  <si>
+    <t>Mauritius</t>
+  </si>
+  <si>
+    <t>Mexico</t>
+  </si>
+  <si>
+    <t>Moldova</t>
+  </si>
+  <si>
+    <t>Mongolia</t>
+  </si>
+  <si>
+    <t>Morocco</t>
+  </si>
+  <si>
+    <t>Netherlands</t>
+  </si>
+  <si>
+    <t>NewZealand</t>
+  </si>
+  <si>
+    <t>Nigeria</t>
+  </si>
+  <si>
+    <t>NorthKorea</t>
+  </si>
+  <si>
+    <t>Norway</t>
+  </si>
+  <si>
+    <t>Panama</t>
+  </si>
+  <si>
+    <t>Poland</t>
+  </si>
+  <si>
+    <t>Portugal</t>
+  </si>
+  <si>
+    <t>Romania</t>
+  </si>
+  <si>
+    <t>Russia</t>
+  </si>
+  <si>
+    <t>Samoa</t>
+  </si>
+  <si>
+    <t>Serbia</t>
+  </si>
+  <si>
+    <t>Singapore</t>
+  </si>
+  <si>
+    <t>Slovakia</t>
+  </si>
+  <si>
+    <t>Slovenia</t>
+  </si>
+  <si>
+    <t>SouthAfrica</t>
+  </si>
+  <si>
+    <t>SouthKorea</t>
+  </si>
+  <si>
+    <t>Spain</t>
+  </si>
+  <si>
+    <t>Sudan</t>
+  </si>
+  <si>
+    <t>Sweden</t>
+  </si>
+  <si>
+    <t>Switzerland</t>
+  </si>
+  <si>
+    <t>Tajikistan</t>
+  </si>
+  <si>
+    <t>Thailand</t>
+  </si>
+  <si>
+    <t>Togo</t>
+  </si>
+  <si>
+    <t>TrinidadandTobago</t>
+  </si>
+  <si>
+    <t>Tunisia</t>
+  </si>
+  <si>
+    <t>Turkey</t>
+  </si>
+  <si>
+    <t>Ukraine</t>
+  </si>
+  <si>
+    <t>UnitedStates</t>
+  </si>
+  <si>
+    <t>Uzbekistan</t>
+  </si>
+  <si>
+    <t>Venezuela</t>
+  </si>
+  <si>
+    <t>Vietnam</t>
+  </si>
+  <si>
+    <t>Zimbabwe</t>
   </si>
 </sst>
 </file>
@@ -1165,7 +1165,7 @@
   <dimension ref="A1:J88"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L5" sqref="L5"/>
+      <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1175,7 +1175,7 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>94</v>
+        <v>7</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -1184,7 +1184,7 @@
         <v>0</v>
       </c>
       <c r="D1" t="s">
-        <v>95</v>
+        <v>8</v>
       </c>
       <c r="E1" t="s">
         <v>2</v>
@@ -1196,22 +1196,22 @@
         <v>4</v>
       </c>
       <c r="H1" t="s">
-        <v>96</v>
+        <v>9</v>
       </c>
       <c r="I1" t="s">
         <v>5</v>
       </c>
       <c r="J1" t="s">
-        <v>93</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="str">
         <f>C2&amp;B2</f>
-        <v>2008 Afghanistan </v>
+        <v>2008Afghanistan</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C2">
         <v>2008</v>
@@ -1241,10 +1241,10 @@
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="str">
         <f t="shared" ref="A3:A66" si="0">C3&amp;B3</f>
-        <v>2008 Algeria </v>
+        <v>2008Algeria</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C3">
         <v>2008</v>
@@ -1274,10 +1274,10 @@
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="str">
         <f t="shared" si="0"/>
-        <v>2008 Argentina </v>
+        <v>2008Argentina</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C4">
         <v>2008</v>
@@ -1307,10 +1307,10 @@
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" t="str">
         <f t="shared" si="0"/>
-        <v>2008 Armenia </v>
+        <v>2008Armenia</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C5">
         <v>2008</v>
@@ -1340,10 +1340,10 @@
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" t="str">
         <f t="shared" si="0"/>
-        <v>2008 Australia </v>
+        <v>2008Australia</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C6">
         <v>2008</v>
@@ -1373,10 +1373,10 @@
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" t="str">
         <f t="shared" si="0"/>
-        <v>2008 Austria </v>
+        <v>2008Austria</v>
       </c>
       <c r="B7" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C7">
         <v>2008</v>
@@ -1406,10 +1406,10 @@
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" t="str">
         <f t="shared" si="0"/>
-        <v>2008 Azerbaijan </v>
+        <v>2008Azerbaijan</v>
       </c>
       <c r="B8" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C8">
         <v>2008</v>
@@ -1439,10 +1439,10 @@
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" t="str">
         <f t="shared" si="0"/>
-        <v>2008 Bahamas </v>
+        <v>2008Bahamas</v>
       </c>
       <c r="B9" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C9">
         <v>2008</v>
@@ -1472,10 +1472,10 @@
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" t="str">
         <f t="shared" si="0"/>
-        <v>2008 Belarus </v>
+        <v>2008Belarus</v>
       </c>
       <c r="B10" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C10">
         <v>2008</v>
@@ -1505,10 +1505,10 @@
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" t="str">
         <f t="shared" si="0"/>
-        <v>2008 Belgium </v>
+        <v>2008Belgium</v>
       </c>
       <c r="B11" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C11">
         <v>2008</v>
@@ -1538,10 +1538,10 @@
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" t="str">
         <f t="shared" si="0"/>
-        <v>2008 Brazil </v>
+        <v>2008Brazil</v>
       </c>
       <c r="B12" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C12">
         <v>2008</v>
@@ -1571,10 +1571,10 @@
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" t="str">
         <f t="shared" si="0"/>
-        <v>2008 Bulgaria </v>
+        <v>2008Bulgaria</v>
       </c>
       <c r="B13" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C13">
         <v>2008</v>
@@ -1604,10 +1604,10 @@
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" t="str">
         <f t="shared" si="0"/>
-        <v>2008 Cameroon </v>
+        <v>2008Cameroon</v>
       </c>
       <c r="B14" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C14">
         <v>2008</v>
@@ -1637,10 +1637,10 @@
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" t="str">
         <f t="shared" si="0"/>
-        <v>2008 Canada </v>
+        <v>2008Canada</v>
       </c>
       <c r="B15" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C15">
         <v>2008</v>
@@ -1670,10 +1670,10 @@
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" t="str">
         <f t="shared" si="0"/>
-        <v>2008 Chile </v>
+        <v>2008Chile</v>
       </c>
       <c r="B16" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C16">
         <v>2008</v>
@@ -1703,10 +1703,10 @@
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" t="str">
         <f t="shared" si="0"/>
-        <v>2008 China </v>
+        <v>2008China</v>
       </c>
       <c r="B17" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C17">
         <v>2008</v>
@@ -1736,10 +1736,10 @@
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" t="str">
         <f t="shared" si="0"/>
-        <v>2008 Chinese Taipei </v>
+        <v>2008ChineseTaipei</v>
       </c>
       <c r="B18" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C18">
         <v>2008</v>
@@ -1769,10 +1769,10 @@
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" t="str">
         <f t="shared" si="0"/>
-        <v>2008 Colombia </v>
+        <v>2008Colombia</v>
       </c>
       <c r="B19" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C19">
         <v>2008</v>
@@ -1802,10 +1802,10 @@
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" t="str">
         <f t="shared" si="0"/>
-        <v>2008 Croatia </v>
+        <v>2008Croatia</v>
       </c>
       <c r="B20" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="C20">
         <v>2008</v>
@@ -1835,10 +1835,10 @@
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" t="str">
         <f t="shared" si="0"/>
-        <v>2008 Cuba </v>
+        <v>2008Cuba</v>
       </c>
       <c r="B21" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="C21">
         <v>2008</v>
@@ -1868,10 +1868,10 @@
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" t="str">
         <f t="shared" si="0"/>
-        <v>2008 Czech Republic </v>
+        <v>2008CzechRepublic</v>
       </c>
       <c r="B22" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C22">
         <v>2008</v>
@@ -1901,10 +1901,10 @@
     <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" t="str">
         <f t="shared" si="0"/>
-        <v>2008 Denmark </v>
+        <v>2008Denmark</v>
       </c>
       <c r="B23" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C23">
         <v>2008</v>
@@ -1934,10 +1934,10 @@
     <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" t="str">
         <f t="shared" si="0"/>
-        <v>2008 Dominican Republic </v>
+        <v>2008DominicanRepublic</v>
       </c>
       <c r="B24" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="C24">
         <v>2008</v>
@@ -1967,10 +1967,10 @@
     <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" t="str">
         <f t="shared" si="0"/>
-        <v>2008 Ecuador </v>
+        <v>2008Ecuador</v>
       </c>
       <c r="B25" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="C25">
         <v>2008</v>
@@ -2000,10 +2000,10 @@
     <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" t="str">
         <f t="shared" si="0"/>
-        <v>2008 Egypt </v>
+        <v>2008Egypt</v>
       </c>
       <c r="B26" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="C26">
         <v>2008</v>
@@ -2033,10 +2033,10 @@
     <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" t="str">
         <f t="shared" si="0"/>
-        <v>2008 Estonia </v>
+        <v>2008Estonia</v>
       </c>
       <c r="B27" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="C27">
         <v>2008</v>
@@ -2066,10 +2066,10 @@
     <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" t="str">
         <f t="shared" si="0"/>
-        <v>2008 Ethiopia </v>
+        <v>2008Ethiopia</v>
       </c>
       <c r="B28" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="C28">
         <v>2008</v>
@@ -2099,10 +2099,10 @@
     <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" t="str">
         <f t="shared" si="0"/>
-        <v>2008 Finland </v>
+        <v>2008Finland</v>
       </c>
       <c r="B29" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="C29">
         <v>2008</v>
@@ -2132,10 +2132,10 @@
     <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" t="str">
         <f t="shared" si="0"/>
-        <v>2008 France </v>
+        <v>2008France</v>
       </c>
       <c r="B30" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="C30">
         <v>2008</v>
@@ -2165,10 +2165,10 @@
     <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31" t="str">
         <f t="shared" si="0"/>
-        <v>2008 Georgia </v>
+        <v>2008Georgia</v>
       </c>
       <c r="B31" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="C31">
         <v>2008</v>
@@ -2198,10 +2198,10 @@
     <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32" t="str">
         <f t="shared" si="0"/>
-        <v>2008 Germany </v>
+        <v>2008Germany</v>
       </c>
       <c r="B32" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="C32">
         <v>2008</v>
@@ -2231,10 +2231,10 @@
     <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33" t="str">
         <f t="shared" si="0"/>
-        <v>2008 Great Britain </v>
+        <v>2008GreatBritain</v>
       </c>
       <c r="B33" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="C33">
         <v>2008</v>
@@ -2264,10 +2264,10 @@
     <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34" t="str">
         <f t="shared" si="0"/>
-        <v>2008 Greece </v>
+        <v>2008Greece</v>
       </c>
       <c r="B34" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="C34">
         <v>2008</v>
@@ -2297,10 +2297,10 @@
     <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A35" t="str">
         <f t="shared" si="0"/>
-        <v>2008 Hungary </v>
+        <v>2008Hungary</v>
       </c>
       <c r="B35" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="C35">
         <v>2008</v>
@@ -2330,10 +2330,10 @@
     <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A36" t="str">
         <f t="shared" si="0"/>
-        <v>2008 Iceland </v>
+        <v>2008Iceland</v>
       </c>
       <c r="B36" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="C36">
         <v>2008</v>
@@ -2363,10 +2363,10 @@
     <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A37" t="str">
         <f t="shared" si="0"/>
-        <v>2008 India </v>
+        <v>2008India</v>
       </c>
       <c r="B37" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="C37">
         <v>2008</v>
@@ -2396,10 +2396,10 @@
     <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A38" t="str">
         <f t="shared" si="0"/>
-        <v>2008 Indonesia </v>
+        <v>2008Indonesia</v>
       </c>
       <c r="B38" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="C38">
         <v>2008</v>
@@ -2429,10 +2429,10 @@
     <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A39" t="str">
         <f t="shared" si="0"/>
-        <v>2008 Iran </v>
+        <v>2008Iran</v>
       </c>
       <c r="B39" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="C39">
         <v>2008</v>
@@ -2462,10 +2462,10 @@
     <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A40" t="str">
         <f t="shared" si="0"/>
-        <v>2008 Ireland </v>
+        <v>2008Ireland</v>
       </c>
       <c r="B40" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="C40">
         <v>2008</v>
@@ -2495,10 +2495,10 @@
     <row r="41" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A41" t="str">
         <f t="shared" si="0"/>
-        <v>2008 Israel </v>
+        <v>2008Israel</v>
       </c>
       <c r="B41" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="C41">
         <v>2008</v>
@@ -2528,10 +2528,10 @@
     <row r="42" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A42" t="str">
         <f t="shared" si="0"/>
-        <v>2008 Italy </v>
+        <v>2008Italy</v>
       </c>
       <c r="B42" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="C42">
         <v>2008</v>
@@ -2561,10 +2561,10 @@
     <row r="43" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A43" t="str">
         <f t="shared" si="0"/>
-        <v>2008 Jamaica </v>
+        <v>2008Jamaica</v>
       </c>
       <c r="B43" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="C43">
         <v>2008</v>
@@ -2594,10 +2594,10 @@
     <row r="44" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A44" t="str">
         <f t="shared" si="0"/>
-        <v>2008 Japan </v>
+        <v>2008Japan</v>
       </c>
       <c r="B44" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="C44">
         <v>2008</v>
@@ -2627,10 +2627,10 @@
     <row r="45" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A45" t="str">
         <f t="shared" si="0"/>
-        <v>2008 Kazakhstan </v>
+        <v>2008Kazakhstan</v>
       </c>
       <c r="B45" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="C45">
         <v>2008</v>
@@ -2660,10 +2660,10 @@
     <row r="46" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A46" t="str">
         <f t="shared" si="0"/>
-        <v>2008 Kenya </v>
+        <v>2008Kenya</v>
       </c>
       <c r="B46" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="C46">
         <v>2008</v>
@@ -2693,10 +2693,10 @@
     <row r="47" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A47" t="str">
         <f t="shared" si="0"/>
-        <v>2008 Kyrgyzstan </v>
+        <v>2008Kyrgyzstan</v>
       </c>
       <c r="B47" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="C47">
         <v>2008</v>
@@ -2726,10 +2726,10 @@
     <row r="48" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A48" t="str">
         <f t="shared" si="0"/>
-        <v>2008 Latvia </v>
+        <v>2008Latvia</v>
       </c>
       <c r="B48" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="C48">
         <v>2008</v>
@@ -2759,10 +2759,10 @@
     <row r="49" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A49" t="str">
         <f t="shared" si="0"/>
-        <v>2008 Lithuania </v>
+        <v>2008Lithuania</v>
       </c>
       <c r="B49" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="C49">
         <v>2008</v>
@@ -2792,10 +2792,10 @@
     <row r="50" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A50" t="str">
         <f t="shared" si="0"/>
-        <v>2008 Malaysia </v>
+        <v>2008Malaysia</v>
       </c>
       <c r="B50" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="C50">
         <v>2008</v>
@@ -2825,10 +2825,10 @@
     <row r="51" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A51" t="str">
         <f t="shared" si="0"/>
-        <v>2008 Mauritius </v>
+        <v>2008Mauritius</v>
       </c>
       <c r="B51" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="C51">
         <v>2008</v>
@@ -2858,10 +2858,10 @@
     <row r="52" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A52" t="str">
         <f t="shared" si="0"/>
-        <v>2008 Mexico </v>
+        <v>2008Mexico</v>
       </c>
       <c r="B52" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="C52">
         <v>2008</v>
@@ -2891,10 +2891,10 @@
     <row r="53" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A53" t="str">
         <f t="shared" si="0"/>
-        <v>2008 Moldova </v>
+        <v>2008Moldova</v>
       </c>
       <c r="B53" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="C53">
         <v>2008</v>
@@ -2924,10 +2924,10 @@
     <row r="54" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A54" t="str">
         <f t="shared" si="0"/>
-        <v>2008 Mongolia </v>
+        <v>2008Mongolia</v>
       </c>
       <c r="B54" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="C54">
         <v>2008</v>
@@ -2957,10 +2957,10 @@
     <row r="55" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A55" t="str">
         <f t="shared" si="0"/>
-        <v>2008 Morocco </v>
+        <v>2008Morocco</v>
       </c>
       <c r="B55" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="C55">
         <v>2008</v>
@@ -2990,10 +2990,10 @@
     <row r="56" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A56" t="str">
         <f t="shared" si="0"/>
-        <v>2008 Netherlands </v>
+        <v>2008Netherlands</v>
       </c>
       <c r="B56" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="C56">
         <v>2008</v>
@@ -3023,10 +3023,10 @@
     <row r="57" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A57" t="str">
         <f t="shared" si="0"/>
-        <v>2008 New Zealand </v>
+        <v>2008NewZealand</v>
       </c>
       <c r="B57" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="C57">
         <v>2008</v>
@@ -3056,10 +3056,10 @@
     <row r="58" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A58" t="str">
         <f t="shared" si="0"/>
-        <v>2008 Nigeria </v>
+        <v>2008Nigeria</v>
       </c>
       <c r="B58" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="C58">
         <v>2008</v>
@@ -3089,10 +3089,10 @@
     <row r="59" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A59" t="str">
         <f t="shared" si="0"/>
-        <v>2008 North Korea </v>
+        <v>2008NorthKorea</v>
       </c>
       <c r="B59" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="C59">
         <v>2008</v>
@@ -3122,10 +3122,10 @@
     <row r="60" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A60" t="str">
         <f t="shared" si="0"/>
-        <v>2008 Norway </v>
+        <v>2008Norway</v>
       </c>
       <c r="B60" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="C60">
         <v>2008</v>
@@ -3155,10 +3155,10 @@
     <row r="61" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A61" t="str">
         <f t="shared" si="0"/>
-        <v>2008 Panama </v>
+        <v>2008Panama</v>
       </c>
       <c r="B61" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="C61">
         <v>2008</v>
@@ -3188,10 +3188,10 @@
     <row r="62" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A62" t="str">
         <f t="shared" si="0"/>
-        <v>2008 Poland </v>
+        <v>2008Poland</v>
       </c>
       <c r="B62" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="C62">
         <v>2008</v>
@@ -3221,10 +3221,10 @@
     <row r="63" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A63" t="str">
         <f t="shared" si="0"/>
-        <v>2008 Portugal </v>
+        <v>2008Portugal</v>
       </c>
       <c r="B63" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="C63">
         <v>2008</v>
@@ -3254,10 +3254,10 @@
     <row r="64" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A64" t="str">
         <f t="shared" si="0"/>
-        <v>2008 Romania </v>
+        <v>2008Romania</v>
       </c>
       <c r="B64" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="C64">
         <v>2008</v>
@@ -3287,10 +3287,10 @@
     <row r="65" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A65" t="str">
         <f t="shared" si="0"/>
-        <v>2008 Russia </v>
+        <v>2008Russia</v>
       </c>
       <c r="B65" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="C65">
         <v>2008</v>
@@ -3320,10 +3320,10 @@
     <row r="66" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A66" t="str">
         <f t="shared" si="0"/>
-        <v>2008 Samoa </v>
+        <v>2008Samoa</v>
       </c>
       <c r="B66" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="C66">
         <v>2008</v>
@@ -3353,10 +3353,10 @@
     <row r="67" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A67" t="str">
         <f t="shared" ref="A67:A88" si="1">C67&amp;B67</f>
-        <v>2008 Serbia </v>
+        <v>2008Serbia</v>
       </c>
       <c r="B67" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="C67">
         <v>2008</v>
@@ -3386,10 +3386,10 @@
     <row r="68" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A68" t="str">
         <f t="shared" si="1"/>
-        <v>2008 Singapore </v>
+        <v>2008Singapore</v>
       </c>
       <c r="B68" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="C68">
         <v>2008</v>
@@ -3419,10 +3419,10 @@
     <row r="69" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A69" t="str">
         <f t="shared" si="1"/>
-        <v>2008 Slovakia </v>
+        <v>2008Slovakia</v>
       </c>
       <c r="B69" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="C69">
         <v>2008</v>
@@ -3452,10 +3452,10 @@
     <row r="70" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A70" t="str">
         <f t="shared" si="1"/>
-        <v>2008 Slovenia </v>
+        <v>2008Slovenia</v>
       </c>
       <c r="B70" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="C70">
         <v>2008</v>
@@ -3485,10 +3485,10 @@
     <row r="71" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A71" t="str">
         <f t="shared" si="1"/>
-        <v>2008 South Africa </v>
+        <v>2008SouthAfrica</v>
       </c>
       <c r="B71" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="C71">
         <v>2008</v>
@@ -3518,10 +3518,10 @@
     <row r="72" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A72" t="str">
         <f t="shared" si="1"/>
-        <v>2008 South Korea </v>
+        <v>2008SouthKorea</v>
       </c>
       <c r="B72" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="C72">
         <v>2008</v>
@@ -3551,10 +3551,10 @@
     <row r="73" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A73" t="str">
         <f t="shared" si="1"/>
-        <v>2008 Spain </v>
+        <v>2008Spain</v>
       </c>
       <c r="B73" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="C73">
         <v>2008</v>
@@ -3584,10 +3584,10 @@
     <row r="74" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A74" t="str">
         <f t="shared" si="1"/>
-        <v>2008 Sudan </v>
+        <v>2008Sudan</v>
       </c>
       <c r="B74" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="C74">
         <v>2008</v>
@@ -3617,10 +3617,10 @@
     <row r="75" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A75" t="str">
         <f t="shared" si="1"/>
-        <v>2008 Sweden </v>
+        <v>2008Sweden</v>
       </c>
       <c r="B75" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="C75">
         <v>2008</v>
@@ -3650,10 +3650,10 @@
     <row r="76" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A76" t="str">
         <f t="shared" si="1"/>
-        <v>2008 Switzerland </v>
+        <v>2008Switzerland</v>
       </c>
       <c r="B76" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="C76">
         <v>2008</v>
@@ -3683,10 +3683,10 @@
     <row r="77" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A77" t="str">
         <f t="shared" si="1"/>
-        <v>2008 Tajikistan </v>
+        <v>2008Tajikistan</v>
       </c>
       <c r="B77" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="C77">
         <v>2008</v>
@@ -3716,10 +3716,10 @@
     <row r="78" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A78" t="str">
         <f t="shared" si="1"/>
-        <v>2008 Thailand </v>
+        <v>2008Thailand</v>
       </c>
       <c r="B78" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="C78">
         <v>2008</v>
@@ -3749,10 +3749,10 @@
     <row r="79" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A79" t="str">
         <f t="shared" si="1"/>
-        <v>2008 Togo </v>
+        <v>2008Togo</v>
       </c>
       <c r="B79" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="C79">
         <v>2008</v>
@@ -3782,10 +3782,10 @@
     <row r="80" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A80" t="str">
         <f t="shared" si="1"/>
-        <v>2008 Trinidad and Tobago </v>
+        <v>2008TrinidadandTobago</v>
       </c>
       <c r="B80" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="C80">
         <v>2008</v>
@@ -3815,10 +3815,10 @@
     <row r="81" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A81" t="str">
         <f t="shared" si="1"/>
-        <v>2008 Tunisia </v>
+        <v>2008Tunisia</v>
       </c>
       <c r="B81" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="C81">
         <v>2008</v>
@@ -3848,10 +3848,10 @@
     <row r="82" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A82" t="str">
         <f t="shared" si="1"/>
-        <v>2008 Turkey </v>
+        <v>2008Turkey</v>
       </c>
       <c r="B82" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="C82">
         <v>2008</v>
@@ -3881,10 +3881,10 @@
     <row r="83" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A83" t="str">
         <f t="shared" si="1"/>
-        <v>2008 Ukraine </v>
+        <v>2008Ukraine</v>
       </c>
       <c r="B83" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="C83">
         <v>2008</v>
@@ -3914,10 +3914,10 @@
     <row r="84" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A84" t="str">
         <f t="shared" si="1"/>
-        <v>2008 United States </v>
+        <v>2008UnitedStates</v>
       </c>
       <c r="B84" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="C84">
         <v>2008</v>
@@ -3947,10 +3947,10 @@
     <row r="85" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A85" t="str">
         <f t="shared" si="1"/>
-        <v>2008 Uzbekistan </v>
+        <v>2008Uzbekistan</v>
       </c>
       <c r="B85" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="C85">
         <v>2008</v>
@@ -3980,10 +3980,10 @@
     <row r="86" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A86" t="str">
         <f t="shared" si="1"/>
-        <v>2008 Venezuela </v>
+        <v>2008Venezuela</v>
       </c>
       <c r="B86" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="C86">
         <v>2008</v>
@@ -4013,10 +4013,10 @@
     <row r="87" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A87" t="str">
         <f t="shared" si="1"/>
-        <v>2008 Vietnam </v>
+        <v>2008Vietnam</v>
       </c>
       <c r="B87" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="C87">
         <v>2008</v>
@@ -4046,10 +4046,10 @@
     <row r="88" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A88" t="str">
         <f t="shared" si="1"/>
-        <v>2008 Zimbabwe </v>
+        <v>2008Zimbabwe</v>
       </c>
       <c r="B88" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="C88">
         <v>2008</v>

--- a/RawData/2008_Olympics.xlsx
+++ b/RawData/2008_Olympics.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Hema/Desktop/butlerdata/Machine-Learning-Project/RawData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0321BBA-6AF3-0245-9313-4D7267A29FEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{874453EA-33C1-FC48-A394-A3C207EDF92E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4160" yWindow="780" windowWidth="23240" windowHeight="12560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -111,9 +111,6 @@
     <t>China</t>
   </si>
   <si>
-    <t>ChineseTaipei</t>
-  </si>
-  <si>
     <t>Colombia</t>
   </si>
   <si>
@@ -129,9 +126,6 @@
     <t>Denmark</t>
   </si>
   <si>
-    <t>DominicanRepublic</t>
-  </si>
-  <si>
     <t>Ecuador</t>
   </si>
   <si>
@@ -156,9 +150,6 @@
     <t>Germany</t>
   </si>
   <si>
-    <t>GreatBritain</t>
-  </si>
-  <si>
     <t>Greece</t>
   </si>
   <si>
@@ -228,15 +219,9 @@
     <t>Netherlands</t>
   </si>
   <si>
-    <t>NewZealand</t>
-  </si>
-  <si>
     <t>Nigeria</t>
   </si>
   <si>
-    <t>NorthKorea</t>
-  </si>
-  <si>
     <t>Norway</t>
   </si>
   <si>
@@ -270,12 +255,6 @@
     <t>Slovenia</t>
   </si>
   <si>
-    <t>SouthAfrica</t>
-  </si>
-  <si>
-    <t>SouthKorea</t>
-  </si>
-  <si>
     <t>Spain</t>
   </si>
   <si>
@@ -297,9 +276,6 @@
     <t>Togo</t>
   </si>
   <si>
-    <t>TrinidadandTobago</t>
-  </si>
-  <si>
     <t>Tunisia</t>
   </si>
   <si>
@@ -309,9 +285,6 @@
     <t>Ukraine</t>
   </si>
   <si>
-    <t>UnitedStates</t>
-  </si>
-  <si>
     <t>Uzbekistan</t>
   </si>
   <si>
@@ -322,6 +295,33 @@
   </si>
   <si>
     <t>Zimbabwe</t>
+  </si>
+  <si>
+    <t>Chinese Taipei</t>
+  </si>
+  <si>
+    <t>Dominican Republic</t>
+  </si>
+  <si>
+    <t>Great Britain</t>
+  </si>
+  <si>
+    <t>North Korea</t>
+  </si>
+  <si>
+    <t>New Zealand</t>
+  </si>
+  <si>
+    <t>South Africa</t>
+  </si>
+  <si>
+    <t>South Korea</t>
+  </si>
+  <si>
+    <t>Trinidad and Tobago</t>
+  </si>
+  <si>
+    <t>United States</t>
   </si>
 </sst>
 </file>
@@ -1164,12 +1164,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J88"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A65" workbookViewId="0">
+      <selection activeCell="B88" sqref="B88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="2" max="2" width="26.83203125" customWidth="1"/>
     <col min="3" max="3" width="9" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1736,10 +1737,10 @@
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" t="str">
         <f t="shared" si="0"/>
-        <v>2008ChineseTaipei</v>
+        <v>2008Chinese Taipei</v>
       </c>
       <c r="B18" t="s">
-        <v>26</v>
+        <v>88</v>
       </c>
       <c r="C18">
         <v>2008</v>
@@ -1772,7 +1773,7 @@
         <v>2008Colombia</v>
       </c>
       <c r="B19" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C19">
         <v>2008</v>
@@ -1805,7 +1806,7 @@
         <v>2008Croatia</v>
       </c>
       <c r="B20" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C20">
         <v>2008</v>
@@ -1838,7 +1839,7 @@
         <v>2008Cuba</v>
       </c>
       <c r="B21" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C21">
         <v>2008</v>
@@ -1871,7 +1872,7 @@
         <v>2008CzechRepublic</v>
       </c>
       <c r="B22" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C22">
         <v>2008</v>
@@ -1904,7 +1905,7 @@
         <v>2008Denmark</v>
       </c>
       <c r="B23" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C23">
         <v>2008</v>
@@ -1934,10 +1935,10 @@
     <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" t="str">
         <f t="shared" si="0"/>
-        <v>2008DominicanRepublic</v>
+        <v>2008Dominican Republic</v>
       </c>
       <c r="B24" t="s">
-        <v>32</v>
+        <v>89</v>
       </c>
       <c r="C24">
         <v>2008</v>
@@ -1970,7 +1971,7 @@
         <v>2008Ecuador</v>
       </c>
       <c r="B25" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C25">
         <v>2008</v>
@@ -2003,7 +2004,7 @@
         <v>2008Egypt</v>
       </c>
       <c r="B26" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C26">
         <v>2008</v>
@@ -2036,7 +2037,7 @@
         <v>2008Estonia</v>
       </c>
       <c r="B27" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C27">
         <v>2008</v>
@@ -2069,7 +2070,7 @@
         <v>2008Ethiopia</v>
       </c>
       <c r="B28" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C28">
         <v>2008</v>
@@ -2102,7 +2103,7 @@
         <v>2008Finland</v>
       </c>
       <c r="B29" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C29">
         <v>2008</v>
@@ -2135,7 +2136,7 @@
         <v>2008France</v>
       </c>
       <c r="B30" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C30">
         <v>2008</v>
@@ -2168,7 +2169,7 @@
         <v>2008Georgia</v>
       </c>
       <c r="B31" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C31">
         <v>2008</v>
@@ -2201,7 +2202,7 @@
         <v>2008Germany</v>
       </c>
       <c r="B32" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C32">
         <v>2008</v>
@@ -2231,10 +2232,10 @@
     <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33" t="str">
         <f t="shared" si="0"/>
-        <v>2008GreatBritain</v>
+        <v>2008Great Britain</v>
       </c>
       <c r="B33" t="s">
-        <v>41</v>
+        <v>90</v>
       </c>
       <c r="C33">
         <v>2008</v>
@@ -2267,7 +2268,7 @@
         <v>2008Greece</v>
       </c>
       <c r="B34" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C34">
         <v>2008</v>
@@ -2300,7 +2301,7 @@
         <v>2008Hungary</v>
       </c>
       <c r="B35" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C35">
         <v>2008</v>
@@ -2333,7 +2334,7 @@
         <v>2008Iceland</v>
       </c>
       <c r="B36" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C36">
         <v>2008</v>
@@ -2366,7 +2367,7 @@
         <v>2008India</v>
       </c>
       <c r="B37" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C37">
         <v>2008</v>
@@ -2399,7 +2400,7 @@
         <v>2008Indonesia</v>
       </c>
       <c r="B38" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C38">
         <v>2008</v>
@@ -2432,7 +2433,7 @@
         <v>2008Iran</v>
       </c>
       <c r="B39" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C39">
         <v>2008</v>
@@ -2465,7 +2466,7 @@
         <v>2008Ireland</v>
       </c>
       <c r="B40" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C40">
         <v>2008</v>
@@ -2498,7 +2499,7 @@
         <v>2008Israel</v>
       </c>
       <c r="B41" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C41">
         <v>2008</v>
@@ -2531,7 +2532,7 @@
         <v>2008Italy</v>
       </c>
       <c r="B42" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C42">
         <v>2008</v>
@@ -2564,7 +2565,7 @@
         <v>2008Jamaica</v>
       </c>
       <c r="B43" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C43">
         <v>2008</v>
@@ -2597,7 +2598,7 @@
         <v>2008Japan</v>
       </c>
       <c r="B44" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C44">
         <v>2008</v>
@@ -2630,7 +2631,7 @@
         <v>2008Kazakhstan</v>
       </c>
       <c r="B45" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C45">
         <v>2008</v>
@@ -2663,7 +2664,7 @@
         <v>2008Kenya</v>
       </c>
       <c r="B46" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C46">
         <v>2008</v>
@@ -2696,7 +2697,7 @@
         <v>2008Kyrgyzstan</v>
       </c>
       <c r="B47" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C47">
         <v>2008</v>
@@ -2729,7 +2730,7 @@
         <v>2008Latvia</v>
       </c>
       <c r="B48" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C48">
         <v>2008</v>
@@ -2762,7 +2763,7 @@
         <v>2008Lithuania</v>
       </c>
       <c r="B49" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C49">
         <v>2008</v>
@@ -2795,7 +2796,7 @@
         <v>2008Malaysia</v>
       </c>
       <c r="B50" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C50">
         <v>2008</v>
@@ -2828,7 +2829,7 @@
         <v>2008Mauritius</v>
       </c>
       <c r="B51" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C51">
         <v>2008</v>
@@ -2861,7 +2862,7 @@
         <v>2008Mexico</v>
       </c>
       <c r="B52" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C52">
         <v>2008</v>
@@ -2894,7 +2895,7 @@
         <v>2008Moldova</v>
       </c>
       <c r="B53" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C53">
         <v>2008</v>
@@ -2927,7 +2928,7 @@
         <v>2008Mongolia</v>
       </c>
       <c r="B54" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C54">
         <v>2008</v>
@@ -2960,7 +2961,7 @@
         <v>2008Morocco</v>
       </c>
       <c r="B55" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C55">
         <v>2008</v>
@@ -2993,7 +2994,7 @@
         <v>2008Netherlands</v>
       </c>
       <c r="B56" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C56">
         <v>2008</v>
@@ -3023,10 +3024,10 @@
     <row r="57" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A57" t="str">
         <f t="shared" si="0"/>
-        <v>2008NewZealand</v>
+        <v>2008New Zealand</v>
       </c>
       <c r="B57" t="s">
-        <v>65</v>
+        <v>92</v>
       </c>
       <c r="C57">
         <v>2008</v>
@@ -3059,7 +3060,7 @@
         <v>2008Nigeria</v>
       </c>
       <c r="B58" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C58">
         <v>2008</v>
@@ -3089,10 +3090,10 @@
     <row r="59" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A59" t="str">
         <f t="shared" si="0"/>
-        <v>2008NorthKorea</v>
+        <v>2008North Korea</v>
       </c>
       <c r="B59" t="s">
-        <v>67</v>
+        <v>91</v>
       </c>
       <c r="C59">
         <v>2008</v>
@@ -3125,7 +3126,7 @@
         <v>2008Norway</v>
       </c>
       <c r="B60" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="C60">
         <v>2008</v>
@@ -3158,7 +3159,7 @@
         <v>2008Panama</v>
       </c>
       <c r="B61" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="C61">
         <v>2008</v>
@@ -3191,7 +3192,7 @@
         <v>2008Poland</v>
       </c>
       <c r="B62" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="C62">
         <v>2008</v>
@@ -3224,7 +3225,7 @@
         <v>2008Portugal</v>
       </c>
       <c r="B63" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="C63">
         <v>2008</v>
@@ -3257,7 +3258,7 @@
         <v>2008Romania</v>
       </c>
       <c r="B64" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="C64">
         <v>2008</v>
@@ -3290,7 +3291,7 @@
         <v>2008Russia</v>
       </c>
       <c r="B65" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C65">
         <v>2008</v>
@@ -3323,7 +3324,7 @@
         <v>2008Samoa</v>
       </c>
       <c r="B66" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="C66">
         <v>2008</v>
@@ -3356,7 +3357,7 @@
         <v>2008Serbia</v>
       </c>
       <c r="B67" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="C67">
         <v>2008</v>
@@ -3389,7 +3390,7 @@
         <v>2008Singapore</v>
       </c>
       <c r="B68" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="C68">
         <v>2008</v>
@@ -3422,7 +3423,7 @@
         <v>2008Slovakia</v>
       </c>
       <c r="B69" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="C69">
         <v>2008</v>
@@ -3455,7 +3456,7 @@
         <v>2008Slovenia</v>
       </c>
       <c r="B70" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="C70">
         <v>2008</v>
@@ -3485,10 +3486,10 @@
     <row r="71" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A71" t="str">
         <f t="shared" si="1"/>
-        <v>2008SouthAfrica</v>
+        <v>2008South Africa</v>
       </c>
       <c r="B71" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="C71">
         <v>2008</v>
@@ -3518,10 +3519,10 @@
     <row r="72" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A72" t="str">
         <f t="shared" si="1"/>
-        <v>2008SouthKorea</v>
+        <v>2008South Korea</v>
       </c>
       <c r="B72" t="s">
-        <v>80</v>
+        <v>94</v>
       </c>
       <c r="C72">
         <v>2008</v>
@@ -3554,7 +3555,7 @@
         <v>2008Spain</v>
       </c>
       <c r="B73" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="C73">
         <v>2008</v>
@@ -3587,7 +3588,7 @@
         <v>2008Sudan</v>
       </c>
       <c r="B74" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="C74">
         <v>2008</v>
@@ -3620,7 +3621,7 @@
         <v>2008Sweden</v>
       </c>
       <c r="B75" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="C75">
         <v>2008</v>
@@ -3653,7 +3654,7 @@
         <v>2008Switzerland</v>
       </c>
       <c r="B76" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="C76">
         <v>2008</v>
@@ -3686,7 +3687,7 @@
         <v>2008Tajikistan</v>
       </c>
       <c r="B77" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="C77">
         <v>2008</v>
@@ -3719,7 +3720,7 @@
         <v>2008Thailand</v>
       </c>
       <c r="B78" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="C78">
         <v>2008</v>
@@ -3752,7 +3753,7 @@
         <v>2008Togo</v>
       </c>
       <c r="B79" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="C79">
         <v>2008</v>
@@ -3782,10 +3783,10 @@
     <row r="80" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A80" t="str">
         <f t="shared" si="1"/>
-        <v>2008TrinidadandTobago</v>
+        <v>2008Trinidad and Tobago</v>
       </c>
       <c r="B80" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="C80">
         <v>2008</v>
@@ -3818,7 +3819,7 @@
         <v>2008Tunisia</v>
       </c>
       <c r="B81" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="C81">
         <v>2008</v>
@@ -3851,7 +3852,7 @@
         <v>2008Turkey</v>
       </c>
       <c r="B82" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="C82">
         <v>2008</v>
@@ -3884,7 +3885,7 @@
         <v>2008Ukraine</v>
       </c>
       <c r="B83" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="C83">
         <v>2008</v>
@@ -3914,10 +3915,10 @@
     <row r="84" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A84" t="str">
         <f t="shared" si="1"/>
-        <v>2008UnitedStates</v>
+        <v>2008United States</v>
       </c>
       <c r="B84" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="C84">
         <v>2008</v>
@@ -3950,7 +3951,7 @@
         <v>2008Uzbekistan</v>
       </c>
       <c r="B85" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="C85">
         <v>2008</v>
@@ -3983,7 +3984,7 @@
         <v>2008Venezuela</v>
       </c>
       <c r="B86" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="C86">
         <v>2008</v>
@@ -4016,7 +4017,7 @@
         <v>2008Vietnam</v>
       </c>
       <c r="B87" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="C87">
         <v>2008</v>
@@ -4049,7 +4050,7 @@
         <v>2008Zimbabwe</v>
       </c>
       <c r="B88" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="C88">
         <v>2008</v>
